--- a/dist/document/dest/2020/10/chi lam/20_htl.xlsx
+++ b/dist/document/dest/2020/10/chi lam/20_htl.xlsx
@@ -16,13 +16,13 @@
     <t>Công ty TNHH DP Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: chi lam</t>
-  </si>
-  <si>
-    <t>PHÍ THÁNG (01/09 -&gt; 30/09/2020)</t>
-  </si>
-  <si>
-    <t>Bác Sĩ: Huỳnh Trác Luân</t>
+    <t>TDV: chi lam</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>Kính gửi khách hàng: 20</t>
   </si>
   <si>
     <t>STT</t>
@@ -46,46 +46,46 @@
     <t>CK</t>
   </si>
   <si>
-    <t>BS One</t>
-  </si>
-  <si>
-    <t>Uvomo</t>
-  </si>
-  <si>
-    <t>Cardorite</t>
-  </si>
-  <si>
-    <t>Picencal</t>
-  </si>
-  <si>
-    <t>Zantagel</t>
-  </si>
-  <si>
-    <t>Cefass</t>
-  </si>
-  <si>
-    <t>Bonzacim</t>
-  </si>
-  <si>
-    <t>Fagendol</t>
-  </si>
-  <si>
-    <t>Loxcip</t>
-  </si>
-  <si>
-    <t>Optipan</t>
-  </si>
-  <si>
-    <t>Maxezole 40</t>
-  </si>
-  <si>
-    <t>Lucass 200</t>
-  </si>
-  <si>
-    <t>Chondrasil</t>
-  </si>
-  <si>
-    <t>Sanaperol</t>
+    <t>BS O**</t>
+  </si>
+  <si>
+    <t>Uvom*</t>
+  </si>
+  <si>
+    <t>Card*****</t>
+  </si>
+  <si>
+    <t>Pice****</t>
+  </si>
+  <si>
+    <t>Zant****</t>
+  </si>
+  <si>
+    <t>Cefa**</t>
+  </si>
+  <si>
+    <t>Bonz****</t>
+  </si>
+  <si>
+    <t>Fage****</t>
+  </si>
+  <si>
+    <t>Loxc**</t>
+  </si>
+  <si>
+    <t>Opti***</t>
+  </si>
+  <si>
+    <t>Maxe*******</t>
+  </si>
+  <si>
+    <t>Luca******</t>
+  </si>
+  <si>
+    <t>Chon******</t>
+  </si>
+  <si>
+    <t>Sana*****</t>
   </si>
   <si>
     <t>Tổng cộng</t>
@@ -620,19 +620,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>840</v>
+        <v>410</v>
       </c>
       <c r="D6" s="10">
         <v>4000</v>
       </c>
       <c r="E6" s="10">
-        <v>3360000</v>
+        <v>1640000</v>
       </c>
       <c r="F6" s="10">
         <v>45</v>
       </c>
       <c r="G6" s="10">
-        <v>1512000</v>
+        <v>738000</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -643,19 +643,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="10">
-        <v>3538</v>
+        <v>2513</v>
       </c>
       <c r="D7" s="10">
         <v>3300</v>
       </c>
       <c r="E7" s="10">
-        <v>11675400</v>
+        <v>8292900</v>
       </c>
       <c r="F7" s="10">
         <v>55</v>
       </c>
       <c r="G7" s="10">
-        <v>6421470</v>
+        <v>4561095</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -666,19 +666,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="10">
-        <v>19047</v>
+        <v>11466</v>
       </c>
       <c r="D8" s="10">
         <v>13000</v>
       </c>
       <c r="E8" s="10">
-        <v>247611000</v>
+        <v>149058000</v>
       </c>
       <c r="F8" s="10">
         <v>55</v>
       </c>
       <c r="G8" s="10">
-        <v>136186050</v>
+        <v>81981900</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -689,19 +689,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="10">
-        <v>6170</v>
+        <v>3724</v>
       </c>
       <c r="D9" s="10">
         <v>2900</v>
       </c>
       <c r="E9" s="10">
-        <v>17893000</v>
+        <v>10799600</v>
       </c>
       <c r="F9" s="10">
         <v>45</v>
       </c>
       <c r="G9" s="10">
-        <v>8051850</v>
+        <v>4859820</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -712,19 +712,19 @@
         <v>15</v>
       </c>
       <c r="C10" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D10" s="10">
         <v>6926</v>
       </c>
       <c r="E10" s="10">
-        <v>623340</v>
+        <v>554080</v>
       </c>
       <c r="F10" s="10">
         <v>38</v>
       </c>
       <c r="G10" s="10">
-        <v>236869.2</v>
+        <v>210550.4</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -735,19 +735,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="10">
-        <v>771</v>
+        <v>821</v>
       </c>
       <c r="D11" s="10">
         <v>9000</v>
       </c>
       <c r="E11" s="10">
-        <v>6939000</v>
+        <v>7389000</v>
       </c>
       <c r="F11" s="10">
         <v>55</v>
       </c>
       <c r="G11" s="10">
-        <v>3816450</v>
+        <v>4063950</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -758,19 +758,19 @@
         <v>17</v>
       </c>
       <c r="C12" s="10">
-        <v>1390</v>
+        <v>2790</v>
       </c>
       <c r="D12" s="10">
         <v>8900</v>
       </c>
       <c r="E12" s="10">
-        <v>12371000</v>
+        <v>24831000</v>
       </c>
       <c r="F12" s="10">
         <v>53</v>
       </c>
       <c r="G12" s="10">
-        <v>6556630</v>
+        <v>13160430</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -781,19 +781,19 @@
         <v>18</v>
       </c>
       <c r="C13" s="10">
-        <v>1335</v>
+        <v>975</v>
       </c>
       <c r="D13" s="10">
         <v>2600</v>
       </c>
       <c r="E13" s="10">
-        <v>3471000</v>
+        <v>2535000</v>
       </c>
       <c r="F13" s="10">
         <v>50</v>
       </c>
       <c r="G13" s="10">
-        <v>1735500</v>
+        <v>1267500</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -804,19 +804,19 @@
         <v>19</v>
       </c>
       <c r="C14" s="10">
-        <v>2363</v>
+        <v>2472</v>
       </c>
       <c r="D14" s="10">
         <v>4700</v>
       </c>
       <c r="E14" s="10">
-        <v>11106100</v>
+        <v>11618400</v>
       </c>
       <c r="F14" s="10">
         <v>40</v>
       </c>
       <c r="G14" s="10">
-        <v>4442440</v>
+        <v>4647360</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -827,19 +827,19 @@
         <v>20</v>
       </c>
       <c r="C15" s="10">
-        <v>7044</v>
+        <v>6357</v>
       </c>
       <c r="D15" s="10">
         <v>9900</v>
       </c>
       <c r="E15" s="10">
-        <v>69735600</v>
+        <v>62934300</v>
       </c>
       <c r="F15" s="10">
         <v>42</v>
       </c>
       <c r="G15" s="10">
-        <v>29288952</v>
+        <v>26432406</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -850,19 +850,19 @@
         <v>21</v>
       </c>
       <c r="C16" s="10">
-        <v>15088</v>
+        <v>13068</v>
       </c>
       <c r="D16" s="10">
         <v>14000</v>
       </c>
       <c r="E16" s="10">
-        <v>211232000</v>
+        <v>182952000</v>
       </c>
       <c r="F16" s="10">
         <v>55</v>
       </c>
       <c r="G16" s="10">
-        <v>116177600</v>
+        <v>100623600</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -873,19 +873,19 @@
         <v>22</v>
       </c>
       <c r="C17" s="10">
-        <v>870</v>
+        <v>937</v>
       </c>
       <c r="D17" s="10">
         <v>14700</v>
       </c>
       <c r="E17" s="10">
-        <v>12789000</v>
+        <v>13773900</v>
       </c>
       <c r="F17" s="10">
         <v>54</v>
       </c>
       <c r="G17" s="10">
-        <v>6906060</v>
+        <v>7437906</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -896,19 +896,19 @@
         <v>23</v>
       </c>
       <c r="C18" s="10">
-        <v>165</v>
+        <v>470</v>
       </c>
       <c r="D18" s="10">
         <v>3700</v>
       </c>
       <c r="E18" s="10">
-        <v>610500</v>
+        <v>1739000</v>
       </c>
       <c r="F18" s="10">
         <v>55</v>
       </c>
       <c r="G18" s="10">
-        <v>335775</v>
+        <v>956450</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -919,19 +919,19 @@
         <v>24</v>
       </c>
       <c r="C19" s="10">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="D19" s="10">
         <v>7900</v>
       </c>
       <c r="E19" s="10">
-        <v>2844000</v>
+        <v>1422000</v>
       </c>
       <c r="F19" s="10">
         <v>53</v>
       </c>
       <c r="G19" s="10">
-        <v>1507320</v>
+        <v>753660</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -940,15 +940,15 @@
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="11">
-        <v>59071</v>
+        <v>46263</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11">
-        <v>612260940</v>
+        <v>479539180</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11">
-        <v>323174966.2</v>
+        <v>251694627.4</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
